--- a/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32B989-8AE6-4C41-A088-3AFF324B44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D1E670-8A98-48D3-8F55-569C9D852481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> Pregnancy-related infection (inc puerp  sepsis) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Pregnancies with abortive outcome (inc abortion, molar, ectopic) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Unknown/undetermined </t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>January - December 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preg with abortive outcome (incl abortion, molar, ectopic) </t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1584</v>

--- a/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D1E670-8A98-48D3-8F55-569C9D852481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B86A0-5916-4D87-A88E-38E7313C4986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t xml:space="preserve"> Hypertensive disorder </t>
   </si>
   <si>
-    <t xml:space="preserve"> Pregnancy-related infection (inc puerp  sepsis) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Unknown/undetermined </t>
   </si>
   <si>
@@ -68,7 +65,10 @@
     <t>January - December 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> Preg with abortive outcome (incl abortion, molar, ectopic) </t>
+    <t xml:space="preserve"> Pregnancies with abortive outcome (inc abortion, molar, ectopic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregnancy-related infection (incl puerp  sepsis) </t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -524,58 +524,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>142</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1584</v>
-      </c>
-      <c r="C2">
-        <v>988</v>
-      </c>
-      <c r="D2">
-        <v>567</v>
-      </c>
-      <c r="E2">
-        <v>396</v>
-      </c>
-      <c r="F2">
-        <v>272</v>
-      </c>
-      <c r="G2">
-        <v>243</v>
-      </c>
-      <c r="H2">
-        <v>94</v>
-      </c>
-      <c r="I2">
-        <v>90</v>
-      </c>
       <c r="J2">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B86A0-5916-4D87-A88E-38E7313C4986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A089A-70F2-43A3-BEB1-5C5A9DD578B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>

--- a/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths cause_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A089A-70F2-43A3-BEB1-5C5A9DD578B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732272A-8B55-4F89-A357-DBDD6EFE0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -44,18 +44,12 @@
     <t xml:space="preserve"> Obstetric haemorrhage </t>
   </si>
   <si>
-    <t xml:space="preserve"> Non-obstetric complications  (incl cardiac, malaria, HIV/AIDS) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hypertensive disorder </t>
   </si>
   <si>
     <t xml:space="preserve"> Unknown/undetermined </t>
   </si>
   <si>
-    <t xml:space="preserve">Unanticipated complications of management (inc surgical) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Other obstetric complications </t>
   </si>
   <si>
@@ -65,10 +59,16 @@
     <t>January - December 2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pregnancies with abortive outcome (inc abortion, molar, ectopic) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pregnancy-related infection (incl puerp  sepsis) </t>
+    <t xml:space="preserve"> Non-obstetric complications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregnancy-related infection </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregnancies with abortive outcome</t>
+  </si>
+  <si>
+    <t>Unanticipated complications</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -521,34 +521,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>231</v>
